--- a/biology/Zoologie/Ichnotropis/Ichnotropis.xlsx
+++ b/biology/Zoologie/Ichnotropis/Ichnotropis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ichnotropis est un genre de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ichnotropis est un genre de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe, en Afrique de l'Est et en Afrique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe, en Afrique de l'Est et en Afrique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 août 2013) :
 Ichnotropis bivittata Bocage, 1866
 Ichnotropis capensis (Smith, 1838)
 Ichnotropis chapini Schmidt, 1919
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1854 : Diagnosen neuer Batrachier, welche zusammen mit der früher (24. Juli und 17. August) gegebenen Übersicht der Schlangen und Eidechsen mitgetheilt werden. Bericht über die zur Bekanntmachung geeigneten Verhandlungen der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1854, p. 614-628 (texte intégral).</t>
         </is>
